--- a/FISIB_Übungen/Netzplan_Übung2.xlsx
+++ b/FISIB_Übungen/Netzplan_Übung2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FISIB_Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D0136D-3079-4C1C-85EE-5141685CB0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94784439-1F1D-4FB2-B31A-590535D4F977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle2" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle3" sheetId="2" r:id="rId2"/>
+    <sheet name="Übung 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Übung 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Übung 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -148,6 +149,9 @@
   </si>
   <si>
     <t>Freier Puffer (FAZ-Nachfolger – FEZ)</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -278,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -338,87 +342,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,29 +428,69 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -509,6 +540,15 @@
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -890,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -900,718 +940,717 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="9">
+      <c r="G2" s="8"/>
+      <c r="H2" s="3">
         <v>6</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="9">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="3">
         <v>7</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="9">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="3">
         <v>4</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="9">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="9">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="3">
         <v>9</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="9">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="9">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="3">
         <v>3</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="9">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="3">
         <v>7</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="9">
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="3">
         <v>9</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="31">
-        <v>0</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="35">
+      <c r="A15" s="26">
         <f>VLOOKUP(A14,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="38"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="39"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:30" thickBot="1"/>
-    <row r="22" spans="1:30" ht="13.5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
     </row>
     <row r="33" spans="1:28" ht="13.5">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
     </row>
     <row r="34" spans="1:28" ht="13.5">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:28" ht="13.5">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
       <c r="I35" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
       <c r="Q35" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="5" t="s">
+      <c r="R35" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
     </row>
     <row r="36" spans="1:28" ht="13.5">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
     </row>
     <row r="37" spans="1:28">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:28">
-      <c r="A38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="32"/>
+      <c r="C38" s="32"/>
     </row>
     <row r="39" spans="1:28">
-      <c r="A39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="32"/>
+      <c r="C39" s="32"/>
     </row>
     <row r="40" spans="1:28">
-      <c r="A40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="32"/>
+      <c r="C40" s="32"/>
     </row>
     <row r="41" spans="1:28">
-      <c r="A41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="32"/>
+      <c r="C41" s="32"/>
     </row>
     <row r="42" spans="1:28">
-      <c r="A42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="32"/>
+      <c r="C42" s="32"/>
     </row>
     <row r="43" spans="1:28">
-      <c r="A43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="32"/>
+      <c r="C43" s="32"/>
     </row>
     <row r="44" spans="1:28">
-      <c r="A44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="32"/>
+      <c r="C44" s="32"/>
     </row>
     <row r="45" spans="1:28">
-      <c r="A45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="32"/>
+      <c r="C45" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="R35:AB35"/>
     <mergeCell ref="D36:H36"/>
     <mergeCell ref="A37:A45"/>
@@ -1621,17 +1660,14 @@
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="J35:P35"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A14:C14"/>
   </mergeCells>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="B15">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="B35">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1648,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1658,257 +1694,720 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="9">
+      <c r="G2" s="8"/>
+      <c r="H2" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="9">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="9">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="9">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="9">
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="31">
-        <v>0</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-    </row>
-    <row r="10" spans="1:8" thickBot="1">
-      <c r="A10" s="34" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="35">
+      <c r="A11" s="26">
         <f>VLOOKUP(A10,$A$2:$H$6,8)</f>
         <v>6</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="38"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="39"/>
-    </row>
-    <row r="16" spans="1:8" thickBot="1"/>
-    <row r="18" ht="13.5"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="30"/>
+    </row>
     <row r="50" spans="1:12" ht="13.5">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
     </row>
     <row r="51" spans="1:12" ht="13.5">
-      <c r="A51" s="24"/>
-      <c r="B51" s="26" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26" t="s">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="25"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="19"/>
     </row>
     <row r="52" spans="1:12" ht="13.5">
-      <c r="A52" s="24"/>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="2" t="s">
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="25"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="19"/>
     </row>
     <row r="53" spans="1:12" ht="13.5">
-      <c r="A53" s="24"/>
-      <c r="B53" s="28" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="25"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="19"/>
     </row>
     <row r="54" spans="1:12" ht="13.5">
-      <c r="A54" s="24"/>
-      <c r="B54" s="26" t="s">
+      <c r="A54" s="18"/>
+      <c r="B54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26" t="s">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="25"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="19"/>
     </row>
     <row r="55" spans="1:12" ht="13.5">
-      <c r="A55" s="24"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="25"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="19"/>
     </row>
     <row r="56" spans="1:12" ht="13.5">
-      <c r="A56" s="24"/>
-      <c r="B56" s="29" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="19"/>
+    </row>
+    <row r="57" spans="1:12" ht="13.5">
+      <c r="A57" s="18"/>
+      <c r="B57" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="19"/>
+    </row>
+    <row r="58" spans="1:12" ht="13.5">
+      <c r="A58" s="18"/>
+      <c r="B58" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="19"/>
+    </row>
+    <row r="59" spans="1:12" ht="13.5">
+      <c r="A59" s="18"/>
+      <c r="B59" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="19"/>
+    </row>
+    <row r="60" spans="1:12" ht="13.5">
+      <c r="A60" s="18"/>
+      <c r="B60" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="19"/>
+    </row>
+    <row r="61" spans="1:12" ht="13.5">
+      <c r="A61" s="18"/>
+      <c r="B61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="19"/>
+    </row>
+    <row r="62" spans="1:12" ht="13.5">
+      <c r="A62" s="18"/>
+      <c r="B62" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+    </row>
+    <row r="63" spans="1:12" ht="13.5">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C53 B61">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42A67FB-DA7E-47D0-BBD7-A5570CA43F20}">
+  <dimension ref="A1:L68"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="64" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="26">
+        <f>VLOOKUP(A15,$A$2:$H$11,8)</f>
+        <v>4</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="29"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="30"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" s="41"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" s="40"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" s="40"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" s="40"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" s="40"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" s="40"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" s="40"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" s="40"/>
+    </row>
+    <row r="55" spans="1:12" ht="13.5">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+    </row>
+    <row r="56" spans="1:12" ht="13.5">
+      <c r="A56" s="18"/>
+      <c r="B56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1916,35 +2415,37 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="25"/>
+      <c r="L56" s="19"/>
     </row>
     <row r="57" spans="1:12" ht="13.5">
-      <c r="A57" s="24"/>
-      <c r="B57" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="1"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="F57" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="25"/>
+      <c r="L57" s="19"/>
     </row>
     <row r="58" spans="1:12" ht="13.5">
-      <c r="A58" s="24"/>
-      <c r="B58" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="1"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1952,17 +2453,17 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="25"/>
+      <c r="L58" s="19"/>
     </row>
     <row r="59" spans="1:12" ht="13.5">
-      <c r="A59" s="24"/>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1970,16 +2471,12 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="25"/>
+      <c r="L59" s="19"/>
     </row>
     <row r="60" spans="1:12" ht="13.5">
-      <c r="A60" s="24"/>
-      <c r="B60" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A60" s="18"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1988,79 +2485,169 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="25"/>
+      <c r="L60" s="19"/>
     </row>
     <row r="61" spans="1:12" ht="13.5">
-      <c r="A61" s="24"/>
-      <c r="B61" s="27" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="19"/>
+    </row>
+    <row r="62" spans="1:12" ht="13.5">
+      <c r="A62" s="18"/>
+      <c r="B62" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="19"/>
+    </row>
+    <row r="63" spans="1:12" ht="13.5">
+      <c r="A63" s="18"/>
+      <c r="B63" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="19"/>
+    </row>
+    <row r="64" spans="1:12" ht="13.5">
+      <c r="A64" s="18"/>
+      <c r="B64" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="19"/>
+    </row>
+    <row r="65" spans="1:12" ht="13.5">
+      <c r="A65" s="18"/>
+      <c r="B65" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="19"/>
+    </row>
+    <row r="66" spans="1:12" ht="13.5">
+      <c r="A66" s="18"/>
+      <c r="B66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C66" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="25"/>
-    </row>
-    <row r="62" spans="1:12" ht="13.5">
-      <c r="A62" s="24"/>
-      <c r="B62" s="30" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="19"/>
+    </row>
+    <row r="67" spans="1:12" ht="13.5">
+      <c r="A67" s="18"/>
+      <c r="B67" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C67" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-    </row>
-    <row r="63" spans="1:12" ht="13.5">
-      <c r="A63" s="24"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+    </row>
+    <row r="68" spans="1:12" ht="13.5">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C63:K63"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="C66:K66"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C62:K62"/>
   </mergeCells>
-  <conditionalFormatting sqref="C52:C53 B61">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C57:C58 B66">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FISIB_Übungen/Netzplan_Übung2.xlsx
+++ b/FISIB_Übungen/Netzplan_Übung2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FISIB_Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94784439-1F1D-4FB2-B31A-590535D4F977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6FDE41-F22B-4C82-A779-C55FFCD64FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/FISIB_Übungen/Netzplan_Übung2.xlsx
+++ b/FISIB_Übungen/Netzplan_Übung2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FISIB_Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6FDE41-F22B-4C82-A779-C55FFCD64FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEA131D3-6F97-4981-8DFF-8E41785A84EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übung 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -282,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -343,10 +343,205 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="hair">
         <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -355,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -443,6 +638,24 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -468,13 +681,92 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -503,6 +795,42 @@
     <dxf>
       <font>
         <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
@@ -515,6 +843,78 @@
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -930,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L30" sqref="K30:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -943,16 +1343,16 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1408,44 +1808,326 @@
       <c r="AD12" s="4"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="23"/>
+      <c r="A13" s="23">
+        <v>0</v>
+      </c>
       <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="33" t="s">
+      <c r="C13" s="25">
+        <v>6</v>
+      </c>
+      <c r="F13" s="23">
+        <v>6</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25">
+        <v>13</v>
+      </c>
+      <c r="K13" s="23">
+        <v>13</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25">
+        <v>18</v>
+      </c>
+      <c r="P13" s="23">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25">
+        <v>21</v>
+      </c>
+      <c r="U13" s="23">
+        <v>21</v>
+      </c>
+      <c r="V13" s="24"/>
+      <c r="W13" s="25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="13.5" thickBot="1">
+      <c r="A14" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="31"/>
+    </row>
+    <row r="15" spans="1:30" ht="13.5" thickBot="1">
       <c r="A15" s="26">
         <f>VLOOKUP(A14,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="29"/>
+      <c r="B15" s="27">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="26">
+        <f>VLOOKUP(F14,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G15" s="27">
+        <v>2</v>
+      </c>
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="K15" s="26">
+        <f>VLOOKUP(K14,$A$2:$H$10,8)</f>
+        <v>5</v>
+      </c>
+      <c r="L15" s="27">
+        <v>2</v>
+      </c>
+      <c r="M15" s="28">
+        <v>0</v>
+      </c>
+      <c r="P15" s="26">
+        <f>VLOOKUP(P14,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>2</v>
+      </c>
+      <c r="R15" s="28">
+        <v>0</v>
+      </c>
+      <c r="U15" s="26">
+        <f>VLOOKUP(U14,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="V15" s="27">
+        <v>2</v>
+      </c>
+      <c r="W15" s="28">
+        <v>2</v>
+      </c>
+      <c r="X15" s="37"/>
+    </row>
+    <row r="16" spans="1:30" ht="13.5" thickBot="1">
+      <c r="A16" s="29">
+        <v>0</v>
+      </c>
       <c r="B16" s="24"/>
-      <c r="C16" s="30"/>
+      <c r="C16" s="30">
+        <v>6</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="F16" s="29">
+        <v>8</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="30">
+        <v>15</v>
+      </c>
+      <c r="K16" s="29">
+        <v>15</v>
+      </c>
+      <c r="L16" s="24"/>
+      <c r="M16" s="30">
+        <v>20</v>
+      </c>
+      <c r="P16" s="29">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="30">
+        <v>23</v>
+      </c>
+      <c r="U16" s="29">
+        <v>23</v>
+      </c>
+      <c r="V16" s="24"/>
+      <c r="W16" s="30">
+        <v>26</v>
+      </c>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="23">
+        <v>26</v>
+      </c>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="25">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="D17" s="35"/>
+      <c r="Z17" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+    </row>
+    <row r="18" spans="1:30" ht="13.5" thickBot="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
+      <c r="D18" s="35"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="26">
+        <f>VLOOKUP(Z17,$A$2:$H$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="AA18" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
+      <c r="D19" s="35"/>
+      <c r="F19" s="23">
+        <v>6</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25">
+        <v>10</v>
+      </c>
+      <c r="K19" s="23">
+        <v>10</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25">
+        <v>19</v>
+      </c>
+      <c r="P19" s="23">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25">
+        <v>26</v>
+      </c>
+      <c r="X19" s="35"/>
+      <c r="Z19" s="29">
+        <v>26</v>
+      </c>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="13.5" thickBot="1">
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="40"/>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="F21" s="26">
+        <f>VLOOKUP(F20,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="G21" s="27">
+        <v>0</v>
+      </c>
+      <c r="H21" s="28">
+        <v>0</v>
+      </c>
+      <c r="K21" s="26">
+        <f>VLOOKUP(K20,$A$2:$H$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="L21" s="27">
+        <v>0</v>
+      </c>
+      <c r="M21" s="28">
+        <v>0</v>
+      </c>
+      <c r="P21" s="26">
+        <f>VLOOKUP(P20,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>0</v>
+      </c>
+      <c r="R21" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="F22" s="29">
+        <v>6</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="30">
+        <v>10</v>
+      </c>
+      <c r="K22" s="29">
+        <v>10</v>
+      </c>
+      <c r="L22" s="24"/>
+      <c r="M22" s="30">
+        <v>19</v>
+      </c>
+      <c r="P22" s="29">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="30">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="4"/>
@@ -1522,27 +2204,27 @@
       <c r="C33" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
     </row>
     <row r="34" spans="1:28" ht="13.5">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="31" t="s">
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:28" ht="13.5">
       <c r="A35" s="13" t="s">
@@ -1554,41 +2236,41 @@
       <c r="C35" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
       <c r="I35" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
       <c r="Q35" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="31" t="s">
+      <c r="R35" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
     </row>
     <row r="36" spans="1:28" ht="13.5">
       <c r="A36" s="15" t="s">
@@ -1598,76 +2280,124 @@
       <c r="C36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
     </row>
     <row r="37" spans="1:28">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="50" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:28">
-      <c r="A38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="50"/>
+      <c r="C38" s="50"/>
     </row>
     <row r="39" spans="1:28">
-      <c r="A39" s="32"/>
-      <c r="C39" s="32"/>
+      <c r="A39" s="50"/>
+      <c r="C39" s="50"/>
     </row>
     <row r="40" spans="1:28">
-      <c r="A40" s="32"/>
-      <c r="C40" s="32"/>
+      <c r="A40" s="50"/>
+      <c r="C40" s="50"/>
     </row>
     <row r="41" spans="1:28">
-      <c r="A41" s="32"/>
-      <c r="C41" s="32"/>
+      <c r="A41" s="50"/>
+      <c r="C41" s="50"/>
     </row>
     <row r="42" spans="1:28">
-      <c r="A42" s="32"/>
-      <c r="C42" s="32"/>
+      <c r="A42" s="50"/>
+      <c r="C42" s="50"/>
     </row>
     <row r="43" spans="1:28">
-      <c r="A43" s="32"/>
-      <c r="C43" s="32"/>
+      <c r="A43" s="50"/>
+      <c r="C43" s="50"/>
     </row>
     <row r="44" spans="1:28">
-      <c r="A44" s="32"/>
-      <c r="C44" s="32"/>
+      <c r="A44" s="50"/>
+      <c r="C44" s="50"/>
     </row>
     <row r="45" spans="1:28">
-      <c r="A45" s="32"/>
-      <c r="C45" s="32"/>
+      <c r="A45" s="50"/>
+      <c r="C45" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="R35:AB35"/>
     <mergeCell ref="D36:H36"/>
     <mergeCell ref="A37:A45"/>
     <mergeCell ref="C37:C45"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="Z17:AB17"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="J35:P35"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:R20"/>
   </mergeCells>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q15">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V15">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA18">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1682,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1693,25 +2423,25 @@
     <col min="1" max="64" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1733,7 +2463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +2481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1769,7 +2499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1789,7 +2519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1805,30 +2535,189 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:18">
+      <c r="A9" s="23">
+        <v>0</v>
+      </c>
       <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="33" t="s">
+      <c r="C9" s="25">
+        <v>6</v>
+      </c>
+      <c r="F9" s="23">
+        <v>6</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25">
+        <v>13</v>
+      </c>
+      <c r="K9" s="23">
+        <v>13</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25">
+        <v>18</v>
+      </c>
+      <c r="P9" s="23">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="13.5" thickBot="1">
+      <c r="A10" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+    </row>
+    <row r="11" spans="1:18" ht="13.5" thickBot="1">
       <c r="A11" s="26">
         <f>VLOOKUP(A10,$A$2:$H$6,8)</f>
         <v>6</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="29"/>
+      <c r="B11" s="27">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="F11" s="26">
+        <f>VLOOKUP(F10,$A$2:$H$6,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0</v>
+      </c>
+      <c r="J11" s="43"/>
+      <c r="K11" s="26">
+        <f>VLOOKUP(K10,$A$2:$H$6,8)</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="27">
+        <v>0</v>
+      </c>
+      <c r="M11" s="28">
+        <v>0</v>
+      </c>
+      <c r="P11" s="26">
+        <f>VLOOKUP(P10,$A$2:$H$6,8)</f>
+        <v>9</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>0</v>
+      </c>
+      <c r="R11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="29">
+        <v>0</v>
+      </c>
       <c r="B12" s="24"/>
-      <c r="C12" s="30"/>
+      <c r="C12" s="30">
+        <v>6</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="F12" s="29">
+        <v>6</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="30">
+        <v>13</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="K12" s="29">
+        <v>13</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="30">
+        <v>18</v>
+      </c>
+      <c r="P12" s="29">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="D13" s="35"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="D14" s="35"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="D15" s="35"/>
+      <c r="F15" s="23">
+        <v>6</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25">
+        <v>10</v>
+      </c>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:18" ht="13.5" thickBot="1">
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" s="26">
+        <f>VLOOKUP(F16,$A$2:$H$6,8)</f>
+        <v>4</v>
+      </c>
+      <c r="G17" s="27">
+        <v>3</v>
+      </c>
+      <c r="H17" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" s="29">
+        <v>9</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="30">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="13.5">
       <c r="A50" s="18"/>
@@ -1864,19 +2753,19 @@
     </row>
     <row r="52" spans="1:12" ht="13.5">
       <c r="A52" s="18"/>
-      <c r="B52" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
+      <c r="B52" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="39" t="s">
+      <c r="F52" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
       <c r="K52" s="1"/>
       <c r="L52" s="19"/>
     </row>
@@ -1937,17 +2826,17 @@
       <c r="B56" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
       <c r="L56" s="19"/>
     </row>
     <row r="57" spans="1:12" ht="13.5">
@@ -1955,17 +2844,17 @@
       <c r="B57" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
       <c r="L57" s="19"/>
     </row>
     <row r="58" spans="1:12" ht="13.5">
@@ -1973,17 +2862,17 @@
       <c r="B58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
       <c r="L58" s="19"/>
     </row>
     <row r="59" spans="1:12" ht="13.5">
@@ -1991,17 +2880,17 @@
       <c r="B59" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
       <c r="L59" s="19"/>
     </row>
     <row r="60" spans="1:12" ht="13.5">
@@ -2009,17 +2898,17 @@
       <c r="B60" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
       <c r="L60" s="19"/>
     </row>
     <row r="61" spans="1:12" ht="13.5">
@@ -2027,17 +2916,17 @@
       <c r="B61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="37" t="s">
+      <c r="C61" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
       <c r="L61" s="19"/>
     </row>
     <row r="62" spans="1:12" ht="13.5">
@@ -2073,13 +2962,17 @@
       <c r="L63" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="F52:J52"/>
     <mergeCell ref="C56:K56"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="C57:K57"/>
     <mergeCell ref="C58:K58"/>
     <mergeCell ref="C59:K59"/>
@@ -2087,12 +2980,32 @@
     <mergeCell ref="C61:K61"/>
   </mergeCells>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C53 B61">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2107,10 +3020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42A67FB-DA7E-47D0-BBD7-A5570CA43F20}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -2118,25 +3031,25 @@
     <col min="1" max="64" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +3069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2174,7 +3087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:28">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2194,7 +3107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:28">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2212,7 +3125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:28">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2230,7 +3143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:28">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2250,7 +3163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:28">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2268,7 +3181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:28">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2290,7 +3203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:28">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2310,7 +3223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:28">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -2328,62 +3241,459 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:28">
+      <c r="A14" s="23">
+        <v>0</v>
+      </c>
       <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="33" t="s">
+      <c r="C14" s="25">
+        <f>A14+A16</f>
         <v>4</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="F14" s="23">
+        <f>C$14</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25">
+        <f>F14+F16</f>
+        <v>7</v>
+      </c>
+      <c r="K14" s="23">
+        <f>H14</f>
+        <v>7</v>
+      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25">
+        <f>K14+K16</f>
+        <v>12</v>
+      </c>
+      <c r="P14" s="23">
+        <f>M14</f>
+        <v>12</v>
+      </c>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="25">
+        <f>P14+P16</f>
+        <v>16</v>
+      </c>
+      <c r="Z14" s="23">
+        <f>MAX(R14,W20)</f>
+        <v>45</v>
+      </c>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="25">
+        <f>Z14+Z16</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="13.5" thickBot="1">
+      <c r="A15" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+    </row>
+    <row r="16" spans="1:28" ht="13.5" thickBot="1">
       <c r="A16" s="26">
         <f>VLOOKUP(A15,$A$2:$H$11,8)</f>
         <v>4</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="29"/>
+      <c r="B16" s="27">
+        <f>C17-C14</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
+        <f>MIN(F14,F20,F26)-C14</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="F16" s="26">
+        <f>VLOOKUP(F15,$A$2:$H$11,8)</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="27">
+        <f>H17-H14</f>
+        <v>29</v>
+      </c>
+      <c r="H16" s="28">
+        <f>K14-H14</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="26">
+        <f>VLOOKUP(K15,$A$2:$H$11,8)</f>
+        <v>5</v>
+      </c>
+      <c r="L16" s="27">
+        <f>M17-M14</f>
+        <v>29</v>
+      </c>
+      <c r="M16" s="28">
+        <f>P14-M14</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="26">
+        <f>VLOOKUP(P15,$A$2:$H$11,8)</f>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="27">
+        <f>R17-R14</f>
+        <v>29</v>
+      </c>
+      <c r="R16" s="28">
+        <f>Z14-R14</f>
+        <v>29</v>
+      </c>
+      <c r="Z16" s="26">
+        <f>VLOOKUP(Z15,$A$2:$H$11,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AA16" s="27">
+        <f>AB17-AB14</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="28"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="29">
+        <f>C17-A16</f>
+        <v>0</v>
+      </c>
       <c r="B17" s="24"/>
-      <c r="C17" s="30"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" s="41"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="C19" s="40"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="C20" s="40"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="C21" s="40"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="C22" s="40"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="C23" s="40"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="C25" s="40"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="C27" s="40"/>
+      <c r="C17" s="30">
+        <f>MIN(F17,F23,F29)</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="F17" s="29">
+        <f>H17-F16</f>
+        <v>33</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="30">
+        <f>K17</f>
+        <v>36</v>
+      </c>
+      <c r="K17" s="29">
+        <f>M17-K16</f>
+        <v>36</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="30">
+        <f>P17</f>
+        <v>41</v>
+      </c>
+      <c r="P17" s="29">
+        <f>R17-P16</f>
+        <v>41</v>
+      </c>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="30">
+        <f>Z17</f>
+        <v>45</v>
+      </c>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="29">
+        <f>AB17-Z16</f>
+        <v>45</v>
+      </c>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="30">
+        <f>AB14</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="C18" s="44"/>
+      <c r="D18" s="35"/>
+      <c r="X18" s="35"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="X19" s="35"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="F20" s="23">
+        <f>C$14</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25">
+        <f>F20+F22</f>
+        <v>16</v>
+      </c>
+      <c r="K20" s="23">
+        <f>H20</f>
+        <v>16</v>
+      </c>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25">
+        <f>K20+K22</f>
+        <v>27</v>
+      </c>
+      <c r="U20" s="23">
+        <f>MAX(M20,R26)</f>
+        <v>39</v>
+      </c>
+      <c r="V20" s="24"/>
+      <c r="W20" s="25">
+        <f>U20+U22</f>
+        <v>45</v>
+      </c>
+      <c r="X20" s="35"/>
+    </row>
+    <row r="21" spans="1:28" ht="13.5" thickBot="1">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="42"/>
+    </row>
+    <row r="22" spans="1:28" ht="13.5" thickBot="1">
+      <c r="C22" s="35"/>
+      <c r="F22" s="26">
+        <f>VLOOKUP(F21,$A$2:$H$11,8)</f>
+        <v>12</v>
+      </c>
+      <c r="G22" s="27">
+        <f>H23-H20</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="28">
+        <f>MIN(K20,P26)-H20</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="K22" s="26">
+        <f>VLOOKUP(K21,$A$2:$H$11,8)</f>
+        <v>11</v>
+      </c>
+      <c r="L22" s="27">
+        <f>M23-M20</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="28">
+        <f>MIN(P26,U20)-M20</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="47"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="26">
+        <f>VLOOKUP(U21,$A$2:$H$11,8)</f>
+        <v>6</v>
+      </c>
+      <c r="V22" s="27">
+        <f>W23-W20</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="28">
+        <f>Z14-W20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="C23" s="35"/>
+      <c r="F23" s="29">
+        <f>H23-F22</f>
+        <v>4</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="30">
+        <f>MIN(K23,P29)</f>
+        <v>16</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="K23" s="29">
+        <f>M23-K22</f>
+        <v>16</v>
+      </c>
+      <c r="L23" s="24"/>
+      <c r="M23" s="30">
+        <f>P29</f>
+        <v>27</v>
+      </c>
+      <c r="N23" s="37"/>
+      <c r="S23" s="35"/>
+      <c r="U23" s="29">
+        <f>W23-U22</f>
+        <v>39</v>
+      </c>
+      <c r="V23" s="24"/>
+      <c r="W23" s="30">
+        <f>Z17</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="C24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="S24" s="35"/>
+    </row>
+    <row r="25" spans="1:28" ht="13.5" thickBot="1">
+      <c r="C25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="39"/>
+      <c r="S25" s="35"/>
+    </row>
+    <row r="26" spans="1:28" ht="13.5" thickBot="1">
+      <c r="C26" s="35"/>
+      <c r="F26" s="23">
+        <f>C$14</f>
+        <v>4</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25">
+        <f>F26+F28</f>
+        <v>11</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="23">
+        <f>MAX(H26,H20,M20)</f>
+        <v>27</v>
+      </c>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="25">
+        <f>P26+P28</f>
+        <v>39</v>
+      </c>
+      <c r="S26" s="35"/>
+    </row>
+    <row r="27" spans="1:28" ht="13.5" thickBot="1">
+      <c r="C27" s="35"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="42"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="F28" s="26">
+        <f>VLOOKUP(F27,$A$2:$H$11,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G28" s="27">
+        <f>H29-H26</f>
+        <v>16</v>
+      </c>
+      <c r="H28" s="28">
+        <f>P26-H26</f>
+        <v>16</v>
+      </c>
+      <c r="P28" s="26">
+        <f>VLOOKUP(P27,$A$2:$H$11,8)</f>
+        <v>12</v>
+      </c>
+      <c r="Q28" s="27">
+        <f>R29-R26</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="28">
+        <f>U20-R26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="F29" s="29">
+        <f>H29-F28</f>
+        <v>20</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="30">
+        <f>P29</f>
+        <v>27</v>
+      </c>
+      <c r="P29" s="29">
+        <f>R29-P28</f>
+        <v>27</v>
+      </c>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="30">
+        <f>U23</f>
+        <v>39</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="13.5">
       <c r="A55" s="18"/>
@@ -2419,19 +3729,19 @@
     </row>
     <row r="57" spans="1:12" ht="13.5">
       <c r="A57" s="18"/>
-      <c r="B57" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
+      <c r="B57" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="39" t="s">
+      <c r="F57" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
       <c r="K57" s="1"/>
       <c r="L57" s="19"/>
     </row>
@@ -2492,17 +3802,17 @@
       <c r="B61" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="37" t="s">
+      <c r="C61" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
       <c r="L61" s="19"/>
     </row>
     <row r="62" spans="1:12" ht="13.5">
@@ -2510,17 +3820,17 @@
       <c r="B62" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
       <c r="L62" s="19"/>
     </row>
     <row r="63" spans="1:12" ht="13.5">
@@ -2528,17 +3838,17 @@
       <c r="B63" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
       <c r="L63" s="19"/>
     </row>
     <row r="64" spans="1:12" ht="13.5">
@@ -2546,17 +3856,17 @@
       <c r="B64" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="37" t="s">
+      <c r="C64" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
       <c r="L64" s="19"/>
     </row>
     <row r="65" spans="1:12" ht="13.5">
@@ -2564,17 +3874,17 @@
       <c r="B65" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
       <c r="L65" s="19"/>
     </row>
     <row r="66" spans="1:12" ht="13.5">
@@ -2582,17 +3892,17 @@
       <c r="B66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="37" t="s">
+      <c r="C66" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
       <c r="L66" s="19"/>
     </row>
     <row r="67" spans="1:12" ht="13.5">
@@ -2628,7 +3938,7 @@
       <c r="L68" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="20">
     <mergeCell ref="C63:K63"/>
     <mergeCell ref="C64:K64"/>
     <mergeCell ref="C65:K65"/>
@@ -2639,15 +3949,69 @@
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="F57:J57"/>
     <mergeCell ref="C61:K61"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P27:R27"/>
     <mergeCell ref="C62:K62"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C58 B66">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V22">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA16">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FISIB_Übungen/Netzplan_Übung2.xlsx
+++ b/FISIB_Übungen/Netzplan_Übung2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FISIB_Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEA131D3-6F97-4981-8DFF-8E41785A84EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F86F0DA-5CDE-4ECE-88A2-DA363C102BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,31 +656,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1343,16 +1343,16 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,27 +2204,27 @@
       <c r="C33" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:28" ht="13.5">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="49" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
     </row>
     <row r="35" spans="1:28" ht="13.5">
       <c r="A35" s="13" t="s">
@@ -2236,41 +2236,41 @@
       <c r="C35" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
       <c r="I35" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="49" t="s">
+      <c r="J35" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
       <c r="Q35" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="49" t="s">
+      <c r="R35" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
-      <c r="AB35" s="49"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
     </row>
     <row r="36" spans="1:28" ht="13.5">
       <c r="A36" s="15" t="s">
@@ -2280,61 +2280,56 @@
       <c r="C36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
     </row>
     <row r="37" spans="1:28">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="53" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:28">
-      <c r="A38" s="50"/>
-      <c r="C38" s="50"/>
+      <c r="A38" s="53"/>
+      <c r="C38" s="53"/>
     </row>
     <row r="39" spans="1:28">
-      <c r="A39" s="50"/>
-      <c r="C39" s="50"/>
+      <c r="A39" s="53"/>
+      <c r="C39" s="53"/>
     </row>
     <row r="40" spans="1:28">
-      <c r="A40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="A40" s="53"/>
+      <c r="C40" s="53"/>
     </row>
     <row r="41" spans="1:28">
-      <c r="A41" s="50"/>
-      <c r="C41" s="50"/>
+      <c r="A41" s="53"/>
+      <c r="C41" s="53"/>
     </row>
     <row r="42" spans="1:28">
-      <c r="A42" s="50"/>
-      <c r="C42" s="50"/>
+      <c r="A42" s="53"/>
+      <c r="C42" s="53"/>
     </row>
     <row r="43" spans="1:28">
-      <c r="A43" s="50"/>
-      <c r="C43" s="50"/>
+      <c r="A43" s="53"/>
+      <c r="C43" s="53"/>
     </row>
     <row r="44" spans="1:28">
-      <c r="A44" s="50"/>
-      <c r="C44" s="50"/>
+      <c r="A44" s="53"/>
+      <c r="C44" s="53"/>
     </row>
     <row r="45" spans="1:28">
-      <c r="A45" s="50"/>
-      <c r="C45" s="50"/>
+      <c r="A45" s="53"/>
+      <c r="C45" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="R35:AB35"/>
     <mergeCell ref="D36:H36"/>
     <mergeCell ref="A37:A45"/>
     <mergeCell ref="C37:C45"/>
@@ -2350,6 +2345,11 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="P20:R20"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="R35:AB35"/>
   </mergeCells>
   <conditionalFormatting sqref="B15">
     <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
@@ -2427,16 +2427,16 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,19 +2753,19 @@
     </row>
     <row r="52" spans="1:12" ht="13.5">
       <c r="A52" s="18"/>
-      <c r="B52" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="B52" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="57" t="s">
+      <c r="F52" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
       <c r="K52" s="1"/>
       <c r="L52" s="19"/>
     </row>
@@ -2826,17 +2826,17 @@
       <c r="B56" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
       <c r="L56" s="19"/>
     </row>
     <row r="57" spans="1:12" ht="13.5">
@@ -2844,17 +2844,17 @@
       <c r="B57" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
       <c r="L57" s="19"/>
     </row>
     <row r="58" spans="1:12" ht="13.5">
@@ -2862,17 +2862,17 @@
       <c r="B58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
       <c r="L58" s="19"/>
     </row>
     <row r="59" spans="1:12" ht="13.5">
@@ -2880,17 +2880,17 @@
       <c r="B59" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
       <c r="L59" s="19"/>
     </row>
     <row r="60" spans="1:12" ht="13.5">
@@ -2898,17 +2898,17 @@
       <c r="B60" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
       <c r="L60" s="19"/>
     </row>
     <row r="61" spans="1:12" ht="13.5">
@@ -2916,17 +2916,17 @@
       <c r="B61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
       <c r="L61" s="19"/>
     </row>
     <row r="62" spans="1:12" ht="13.5">
@@ -2963,21 +2963,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="P10:R10"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
   </mergeCells>
   <conditionalFormatting sqref="B11">
     <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
@@ -3022,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42A67FB-DA7E-47D0-BBD7-A5570CA43F20}">
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3035,16 +3035,16 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
@@ -3385,7 +3385,9 @@
         <f>AB17-AB14</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="28"/>
+      <c r="AB16" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="29">
@@ -3729,19 +3731,19 @@
     </row>
     <row r="57" spans="1:12" ht="13.5">
       <c r="A57" s="18"/>
-      <c r="B57" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="B57" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="57" t="s">
+      <c r="F57" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
       <c r="K57" s="1"/>
       <c r="L57" s="19"/>
     </row>
@@ -3802,17 +3804,17 @@
       <c r="B61" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
       <c r="L61" s="19"/>
     </row>
     <row r="62" spans="1:12" ht="13.5">
@@ -3820,17 +3822,17 @@
       <c r="B62" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
       <c r="L62" s="19"/>
     </row>
     <row r="63" spans="1:12" ht="13.5">
@@ -3838,17 +3840,17 @@
       <c r="B63" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
       <c r="L63" s="19"/>
     </row>
     <row r="64" spans="1:12" ht="13.5">
@@ -3856,17 +3858,17 @@
       <c r="B64" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
       <c r="L64" s="19"/>
     </row>
     <row r="65" spans="1:12" ht="13.5">
@@ -3874,17 +3876,17 @@
       <c r="B65" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
       <c r="L65" s="19"/>
     </row>
     <row r="66" spans="1:12" ht="13.5">
@@ -3892,17 +3894,17 @@
       <c r="B66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C66" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="55"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
       <c r="L66" s="19"/>
     </row>
     <row r="67" spans="1:12" ht="13.5">
@@ -3939,6 +3941,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="C62:K62"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F21:H21"/>
     <mergeCell ref="C63:K63"/>
     <mergeCell ref="C64:K64"/>
     <mergeCell ref="C65:K65"/>
@@ -3952,13 +3961,6 @@
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="C62:K62"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
